--- a/リトライ処理ライブラリまとめ.xlsx
+++ b/リトライ処理ライブラリまとめ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23006"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rizen\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBD2515-87F2-4F9E-A701-E2A716D752BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4210CF8D-C86F-4259-866C-76580A2868C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1185" yWindow="0" windowWidth="36675" windowHeight="21000" xr2:uid="{591E6B29-63AA-4CE5-B1C5-5687467052EB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="194">
   <si>
     <t>Spring Retry</t>
     <phoneticPr fontId="1"/>
@@ -50,31 +50,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>実装方法</t>
-    <rPh sb="0" eb="2">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>build.gradle</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>implementation 'org.springframework.retry:spring-retry'</t>
-  </si>
-  <si>
     <t>○Gradle</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>○Java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>@SpringBootApplication</t>
   </si>
   <si>
@@ -97,17 +80,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・メインクラス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・リトライ処理メソッド</t>
-    <rPh sb="5" eb="7">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">    public String index() {</t>
   </si>
   <si>
@@ -115,25 +87,6 @@
   </si>
   <si>
     <t>value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リトライ条件のExceptionクラスを指定(複数指定可能)</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>カノウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -238,45 +191,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">    public String recoverBar(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BarException exception</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) {</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リトライ処理がBarExceptionで終了した際の処理メソッド</t>
-    <rPh sb="4" eb="6">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>サイショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">recover </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -311,9 +225,6 @@
     <t>Failsafe</t>
   </si>
   <si>
-    <t>implementation 'net.jodah:failsafe:1.1.0'</t>
-  </si>
-  <si>
     <t>・リトライ回数の指定</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -343,16 +254,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>主な機能</t>
-    <rPh sb="0" eb="1">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・処理成功と失敗で処理分岐</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -454,10 +355,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>特定の例外がスローされたら、2秒間隔で最大3回リトライする</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>retryOn</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -482,18 +379,6 @@
   </si>
   <si>
     <t>withBackoff</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リトライ処理がExceptionで終了した際の処理メソッドに付与する。
-@Recoverメソッドは引数に例外クラスを指定する。
-@Retryableと同じクラスに実装する。</t>
-    <rPh sb="23" eb="25">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>レイガイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -595,35 +480,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>リトライ条件の指定(RetryPolicyクラスで定義)</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>テイギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メソッド実行時の指定(Failsafeクラスで定義)</t>
-    <rPh sb="4" eb="6">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>テイギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>with</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -784,20 +640,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・アノテーションを使用する場合</t>
-    <rPh sb="9" eb="11">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・アノテーションを使用しない場合</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>setBackOffPolicy</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -847,10 +689,6 @@
     <t>setInitialInterval</t>
   </si>
   <si>
-    <t>●RetryTemplate</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SimpleRetryPolicy</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -872,33 +710,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>●SimpleRetryPolicy</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>インスタンス生成時に回数を指定(例外クラスの指定も可)</t>
-    <rPh sb="6" eb="8">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カイスウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>●ExponentialBackOffPolicy</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>setMultiplier</t>
   </si>
   <si>
@@ -951,9 +762,6 @@
   </si>
   <si>
     <t>●例</t>
-  </si>
-  <si>
-    <t>●例</t>
     <rPh sb="1" eb="2">
       <t>レイ</t>
     </rPh>
@@ -964,31 +772,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>User user = template.execute((RetryCallback&lt;User, Throwable&gt;) retryContext -&gt; {</t>
-  </si>
-  <si>
     <t>});</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">        return getUserUnsuccessfully();</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">RetryTemplate template = new RetryTemplate(); </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SimpleRetryPolicy retryPolicy = new SimpleRetryPolicy(5, Exceptions);  //リトライ回数が5回、ExceptionがThrowされた場合リトライ</t>
-    <rPh sb="77" eb="79">
-      <t>カイスウ</t>
-    </rPh>
-    <rPh sb="81" eb="82">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="101" eb="103">
-      <t>バアイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1035,16 +823,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">        System.out.println(LocalDateTime.now() + " retry=" + retryContext.getRetryCount());  //リトライ回数出力</t>
-    <rPh sb="99" eb="101">
-      <t>カイスウ</t>
-    </rPh>
-    <rPh sb="101" eb="103">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Failsafe（ver.2.x）</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1056,10 +834,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>implementation 'net.jodah:failsafe:2.4.1'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>handle</t>
   </si>
   <si>
@@ -1096,25 +870,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>abortWhen
-abortOn
-abortIf</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リトライ停止条件の指定</t>
-    <rPh sb="4" eb="6">
-      <t>テイシ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>handleResult</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1144,25 +899,6 @@
     <t>onRetry</t>
   </si>
   <si>
-    <t>処理が成功したときの戻り値を指定</t>
-    <rPh sb="0" eb="2">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>セイコウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>onRetriesExceeded</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1210,10 +946,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>例外がスローされたら、1秒間隔で5回リトライする</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ConnectExceptionがThrowされたら1秒間隔で最大3回リトライする</t>
     <rPh sb="27" eb="28">
       <t>ビョウ</t>
@@ -1230,9 +962,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Connection connection = Failsafe.with(retryPolicy).get(() -&gt; connect());</t>
-  </si>
-  <si>
     <t>リトライ処理のライブラリ</t>
     <rPh sb="4" eb="6">
       <t>ショリ</t>
@@ -1240,34 +969,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>一覧</t>
-    <rPh sb="0" eb="2">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ライブラリ名</t>
     <rPh sb="5" eb="6">
       <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RetryHandler</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Springフレームワークと依存性のあるライブラリ</t>
-    <rPh sb="14" eb="17">
-      <t>イゾンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Nablarchフレームワークと依存性のあるライブラリ</t>
-    <rPh sb="16" eb="19">
-      <t>イゾンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1309,6 +1013,710 @@
   </si>
   <si>
     <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Springフレームワークと依存性のあるライブラリ
+アノテーションを使用する方法とクラスで定義する方法がある
+クラスで定義する方が条件設定の自由度は高い</t>
+    <rPh sb="14" eb="17">
+      <t>イゾンセイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="70" eb="73">
+      <t>ジユウド</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.主な機能</t>
+    <rPh sb="2" eb="3">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.実装方法</t>
+    <rPh sb="2" eb="4">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-1.ライブラリの追加</t>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-2.Javaソース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-2-1.アノテーションを使用しない場合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・RetryTemplateクラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>execute</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RetryCallback</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リトライ失敗時の処理を定義</t>
+    <rPh sb="4" eb="6">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RetryableExceptions</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リトライ対象の例外クラスを定義</t>
+    <rPh sb="4" eb="6">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SimpleRetryPolicy retryPolicy = new SimpleRetryPolicy(5, retryableExceptions);  //リトライ回数が5回、ExceptionがThrowされた場合リトライ</t>
+    <rPh sb="86" eb="88">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主要クラス一覧</t>
+    <rPh sb="0" eb="2">
+      <t>シュヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主要メソッド一覧</t>
+    <rPh sb="0" eb="2">
+      <t>シュヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>両ライブラリとも同じような処理ができ、
+大きな違いはフレームワークとの依存性の有無ぐらい。
+条件(回数、リトライ間隔等)を分けて定義したい場合はSpring Retry、
+条件をまとめて定義したい場合はFailsafeを使用するとよい。
+Falesafeの方がソースの分かりやすい。</t>
+    <rPh sb="0" eb="1">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>イゾンセイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ウム</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>カンカク</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライブラリ一覧</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・SimpleRetryPolicyクラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インスタンス生成時に回数と定義したリトライ対象の例外クラスを指定(例外クラスは任意)</t>
+    <rPh sb="6" eb="8">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ニンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Map&lt;Class&lt;? extends Throwable&gt;, Boolean&gt; retryableExceptions = Collections.singletonMap(UserNotFoundException.class, true);  //リトライさせたい例外クラスを指定</t>
+    <rPh sb="135" eb="137">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    public String recoverBar(BarException exception) {</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ExponentialBackOffPolicyクラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○例</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・例外がスローされたら、1秒間隔で5回リトライする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println(LocalDateTime.now() + " retry=" + retryContext.getRetryCount());  //リトライ失敗ごとの処理</t>
+    <rPh sb="99" eb="101">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>template.execute((RetryCallback&lt;User, Throwable&gt;) retryContext -&gt; {</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        throw new UnexpectedException();</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>},</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>retryContext -&gt; {</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        return getUserSuccessfully();</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("recovered!");  //リトライ回数超過時の処理</t>
+    <rPh sb="49" eb="51">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>チョウカ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-2-2.アノテーションを使用する場合</t>
+    <rPh sb="14" eb="16">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アノテーション一覧</t>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メインクラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リトライ処理メソッド</t>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リトライ処理がBarExceptionで終了した際の処理メソッド</t>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>サイショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リトライ処理が指定した例外で終了した際の処理メソッドに付与する。
+@Recoverメソッドは引数に例外クラスを指定する。
+@Retryableと同じクラスに実装する。</t>
+    <rPh sb="7" eb="9">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>レイガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リトライ条件の例外クラスを指定(複数指定可能)</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dependencies {</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    implementation 'net.jodah:failsafe:1.1.0'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    implementation 'org.springframework.retry:spring-retry'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主要クラス</t>
+    <rPh sb="0" eb="2">
+      <t>シュヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RetryPolicy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Failsafe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リトライ条件のを定義</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リトライ対象メソッド実行時の定義</t>
+    <rPh sb="4" eb="6">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・RetryPolicyクラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主要メソッド</t>
+    <rPh sb="0" eb="2">
+      <t>シュヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Failsafeクラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・特定の例外がスローされたら、2秒間隔で最大3回リトライする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    implementation 'net.jodah:failsafe:2.4.1'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fallback</t>
+  </si>
+  <si>
+    <t>リトライ対象メソッド実行後の処理を定義</t>
+    <rPh sb="4" eb="6">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Fallbackクラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>onFailedAttempt</t>
+  </si>
+  <si>
+    <t>フォールバック処理が成功した場合の処理を定義</t>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォールバック処理が失敗した場合の処理を定義</t>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リトライ処理が失敗した場合の処理を定義</t>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォールバック対象の例外クラスを指定</t>
+    <rPh sb="7" eb="9">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォールバック時の戻り値を定義</t>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  .handleResult(null);  //フォールバック時の戻り値</t>
+    <rPh sb="33" eb="34">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  .handle(ConnectException.class)  //フォールバック対象の例外クラス</t>
+    <rPh sb="44" eb="46">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>レイガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  .onFailure(e -&gt; log.error("Failed to connect to backup", e.getFailure()));  //フォールバック失敗時の処理</t>
+    <rPh sb="87" eb="89">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  .onFailedAttempt(e -&gt; log.error("Connection failed", e.getLastFailure()))  //リトライ対象の処理失敗時の処理</t>
+    <rPh sb="83" eb="85">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  .onSuccess(e -&gt; log.info("Connection established"));  //リトライ対象の処理、フォールバック処理成功時の処理</t>
+    <rPh sb="62" eb="64">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Connection connection = Failsafe.with(fallback, retryPolicy).get(() -&gt; connect());</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fallback&lt;Object&gt; fallback = Fallback</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSアカウントが必要で、実装処理も上記ライブラリより分かりずらいため調査対象外</t>
+    <rPh sb="9" eb="11">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ガイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1316,7 +1724,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1385,6 +1793,24 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1429,14 +1855,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1466,7 +1889,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1783,84 +2224,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F17C273-CA3A-47C6-B8E6-5E7D55453490}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="60.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="78.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B4" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="C4" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B4" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B5" s="3" t="s">
+      <c r="D4" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B8" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>158</v>
+        <v>125</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E5:E6"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1868,7 +2310,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5F3D27-B151-487F-A1FC-B29CFCF2AAFB}">
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1878,404 +2320,490 @@
     <col min="3" max="3" width="73" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="33" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:3" ht="33" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="B3" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="B11" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20.25" x14ac:dyDescent="0.4">
+      <c r="B12" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
-        <v>6</v>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B15" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="15"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B16" s="15" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B18" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B19" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>94</v>
+      <c r="B17" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="15"/>
+    </row>
+    <row r="19" spans="2:3" ht="20.25" x14ac:dyDescent="0.4">
+      <c r="B19" s="14" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B20" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>95</v>
+      <c r="B20" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B21" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B22" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B23" t="s">
-        <v>99</v>
+      <c r="B23" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B24" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>101</v>
+      <c r="B24" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B25" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B27" t="s">
-        <v>103</v>
+      <c r="B25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>104</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B30" t="s">
-        <v>105</v>
+      <c r="B30" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B31" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>108</v>
+      <c r="B31" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B32" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B33" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>110</v>
+      <c r="B32" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B34" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B36" t="s">
-        <v>78</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B39" t="s">
-        <v>118</v>
+      <c r="B39" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B40" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B41" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B42" t="s">
-        <v>119</v>
+      <c r="B41" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
-        <v>144</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B44" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
-        <v>121</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B47" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B49" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B56" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B57" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B58" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B59" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B57" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B58" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B59" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B60" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B62" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B63" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B64" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B67" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B68" s="15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B69" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B70" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B71" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B62" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B63" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B64" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B65" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B67" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B68" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B69" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B70" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B71" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B72" t="s">
-        <v>10</v>
+      <c r="C71" s="3" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B73" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B74" t="s">
-        <v>12</v>
+      <c r="B74" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B75" t="s">
-        <v>13</v>
+      <c r="B75" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B76" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B77" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B78" t="s">
-        <v>38</v>
+      <c r="B77" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B79" s="2" t="s">
-        <v>33</v>
+      <c r="B79" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B80" t="s">
-        <v>16</v>
+      <c r="B80" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B81" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B82" t="s">
-        <v>17</v>
+      <c r="B82" s="15" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B83" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B84" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B85" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B86" s="1" t="s">
-        <v>25</v>
+      <c r="B86" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B87" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B88" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B89" t="s">
+      <c r="B89" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B90" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B91" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B92" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B93" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B94" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B95" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B97" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B98" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B99" s="15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B100" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B101" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2286,7 +2814,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D48DCA-8AD7-4CF9-B5B1-A87490B08CA2}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2297,58 +2825,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
-        <v>47</v>
+      <c r="A1" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="B3" s="13" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
-        <v>5</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="B12" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="20.25" x14ac:dyDescent="0.4">
+      <c r="B13" s="14" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -2357,176 +2885,225 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B15" t="s">
-        <v>41</v>
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B16" s="15" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>6</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B19" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B20" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>68</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="20.25" x14ac:dyDescent="0.4">
+      <c r="B20" s="14" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B21" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>72</v>
+      <c r="B21" s="15" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B22" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>73</v>
+      <c r="B22" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B23" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>74</v>
-      </c>
+      <c r="B23" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B24" s="15"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>76</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B26" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B27" s="8" t="s">
-        <v>79</v>
+      <c r="B26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B27" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B28" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>82</v>
+      <c r="B28" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B29" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>84</v>
+      <c r="B29" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B30" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>87</v>
+      <c r="B30" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B31" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>88</v>
+      <c r="B31" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
-        <v>112</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>78</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B35" t="s">
-        <v>59</v>
+      <c r="B35" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B36" t="s">
-        <v>51</v>
+      <c r="B36" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B37" t="s">
+      <c r="B37" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B38" s="7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B38" t="s">
+      <c r="C38" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B41" t="s">
-        <v>53</v>
+      <c r="B39" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B40" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
-        <v>55</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C43" t="s">
+      <c r="B43" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B44" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B46" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C44" t="s">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B47" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C45" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C46" t="s">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B48" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B50" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C52" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C54" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C55" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2537,7 +3114,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA5DDA9-8D33-4C1A-AFF7-7DF007D2724A}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2548,28 +3125,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
-        <v>47</v>
+      <c r="A1" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="B3" s="13" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
-        <v>5</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="B6" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20.25" x14ac:dyDescent="0.4">
+      <c r="B7" s="14" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
@@ -2578,143 +3155,279 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
-        <v>126</v>
-      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B10" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="15"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
-        <v>6</v>
+      <c r="B11" s="15" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B13" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B14" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>130</v>
+      <c r="B12" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="15"/>
+    </row>
+    <row r="14" spans="1:3" ht="20.25" x14ac:dyDescent="0.4">
+      <c r="B14" s="14" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B16" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>132</v>
+      <c r="B15" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B16" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B17" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>134</v>
+      <c r="B17" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B18" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B19" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>139</v>
-      </c>
+      <c r="B18" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="20.25" x14ac:dyDescent="0.4">
+      <c r="B19" s="14"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B20" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>138</v>
+      <c r="B20" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B21" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>87</v>
+      <c r="B21" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B22" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>88</v>
+      <c r="B22" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B24" s="11" t="s">
-        <v>112</v>
+      <c r="B24" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B25" t="s">
-        <v>78</v>
+      <c r="B25" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B26" t="s">
-        <v>146</v>
+      <c r="B26" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B27" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B28" t="s">
-        <v>143</v>
+      <c r="B27" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
-        <v>142</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B31" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B33" t="s">
-        <v>147</v>
+      <c r="B32" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B33" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B34" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B35" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B37" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B38" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B39" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B40" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B41" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B43" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B46" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B47" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B48" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B51" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B52" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B53" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B54" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B55" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B56" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B58" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B59" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
